--- a/example/input/codes.xlsx
+++ b/example/input/codes.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjeon_000\Dropbox\rename_encode_excel\example_census\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slhudson/Dropbox (MIT)/Research/Software/renameencode/example/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="636" yWindow="1176" windowWidth="24960" windowHeight="14736" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="tract" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -137,13 +140,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -454,17 +457,17 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D31"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -478,9 +481,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>3521</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -493,9 +496,9 @@
         <v>10000352100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>3522</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -508,9 +511,9 @@
         <v>10000352200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>3523</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -523,9 +526,9 @@
         <v>10000352300</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>3524</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -538,9 +541,9 @@
         <v>10000352400</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>3525</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -553,9 +556,9 @@
         <v>10000352500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>3526</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -568,9 +571,9 @@
         <v>10000352600</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>3527</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -583,9 +586,9 @@
         <v>10000352700</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>3528</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -598,9 +601,9 @@
         <v>10000352800</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>3529</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -613,9 +616,9 @@
         <v>10000352900</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>3530</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -628,9 +631,9 @@
         <v>10000353000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>3531</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -643,9 +646,9 @@
         <v>10000353100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>3532</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -658,9 +661,9 @@
         <v>10000353200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>3533</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -673,9 +676,9 @@
         <v>10000353300</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>3534</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -688,9 +691,9 @@
         <v>10000353400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>3535</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -703,9 +706,9 @@
         <v>10000353500</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>3536</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -718,9 +721,9 @@
         <v>10000353600</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>3537</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -733,9 +736,9 @@
         <v>10000353700</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>3538</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -748,9 +751,9 @@
         <v>10000353800</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>3539</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -763,9 +766,9 @@
         <v>10000353900</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>3540</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -778,9 +781,9 @@
         <v>10000354000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>3541</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -793,9 +796,9 @@
         <v>10000354100</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>3542</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -808,9 +811,9 @@
         <v>10000354200</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>3543</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -823,9 +826,9 @@
         <v>10000354300</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>3544</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -838,9 +841,9 @@
         <v>10000354400</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>3545</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -853,9 +856,9 @@
         <v>10000354500</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>3546</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -868,9 +871,9 @@
         <v>10000354600</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>3547</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -883,9 +886,9 @@
         <v>10000354700</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>3548</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -898,9 +901,9 @@
         <v>10000354800</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>3549</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -913,9 +916,9 @@
         <v>10000354900</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>3550</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>

--- a/example/input/codes.xlsx
+++ b/example/input/codes.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alicia\Desktop\rename-and-encode-master\example\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinappo/Desktop/renameencode/example/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="465" windowWidth="14400" windowHeight="17445" tabRatio="500"/>
+    <workbookView xWindow="27480" yWindow="2000" windowWidth="19120" windowHeight="19940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="state" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
-  <si>
-    <t>code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>abbreviation</t>
   </si>
@@ -338,14 +338,29 @@
     <t>DC</t>
   </si>
   <si>
-    <t>state_name</t>
+    <t>FIPS_code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>PR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -666,588 +681,610 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="128" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
